--- a/horarios/public/resources/MallaCurricular2020.xlsx
+++ b/horarios/public/resources/MallaCurricular2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC40E9B-9C2F-447F-9E95-92A79ED6FDC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CA94F-9174-4E34-963F-5953CB2881B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>CBM1000</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>ACTIVIDAD TITULACION</t>
+  </si>
+  <si>
+    <t>Semestre</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -677,6 +680,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1008,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1037,9 @@
       <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1"/>
+      <c r="D1" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,7 +1052,9 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1067,9 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,7 +1082,9 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1097,9 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,7 +1112,9 @@
       <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1127,9 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,7 +1142,9 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1157,9 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,7 +1172,9 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,7 +1187,9 @@
       <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,7 +1202,9 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,7 +1217,9 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,7 +1232,9 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1247,9 @@
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,7 +1262,9 @@
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,7 +1277,9 @@
       <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1254,7 +1292,9 @@
       <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1267,7 +1307,9 @@
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,7 +1322,9 @@
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,7 +1337,9 @@
       <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,7 +1352,9 @@
       <c r="C22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1319,7 +1367,9 @@
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" s="20">
+        <v>5</v>
+      </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1332,7 +1382,9 @@
       <c r="C24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="20">
+        <v>5</v>
+      </c>
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1397,9 @@
       <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" s="20">
+        <v>5</v>
+      </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,7 +1412,9 @@
       <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26"/>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1371,7 +1427,9 @@
       <c r="C27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" s="20">
+        <v>5</v>
+      </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1384,7 +1442,9 @@
       <c r="C28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" s="20">
+        <v>5</v>
+      </c>
       <c r="E28"/>
       <c r="J28" s="12"/>
     </row>
@@ -1398,7 +1458,9 @@
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D29"/>
+      <c r="D29" s="6">
+        <v>6</v>
+      </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1411,7 +1473,9 @@
       <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" s="6">
+        <v>6</v>
+      </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1424,7 +1488,9 @@
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" s="6">
+        <v>6</v>
+      </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,7 +1503,9 @@
       <c r="C32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32"/>
+      <c r="D32" s="6">
+        <v>6</v>
+      </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,7 +1518,9 @@
       <c r="C33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D33"/>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1463,7 +1533,9 @@
       <c r="C34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1548,9 @@
       <c r="C35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1489,7 +1563,9 @@
       <c r="C36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" s="7">
+        <v>7</v>
+      </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,7 +1578,9 @@
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,7 +1593,9 @@
       <c r="C38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1608,9 @@
       <c r="C39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" s="7">
+        <v>7</v>
+      </c>
       <c r="E39"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,7 +1623,9 @@
       <c r="C40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" s="8">
+        <v>8</v>
+      </c>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,7 +1638,9 @@
       <c r="C41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" s="8">
+        <v>8</v>
+      </c>
       <c r="E41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,7 +1653,9 @@
       <c r="C42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" s="8">
+        <v>8</v>
+      </c>
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,7 +1668,9 @@
       <c r="C43" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" s="8">
+        <v>8</v>
+      </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,7 +1683,9 @@
       <c r="C44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" s="8">
+        <v>8</v>
+      </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1698,9 @@
       <c r="C45" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" s="9">
+        <v>9</v>
+      </c>
       <c r="E45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,7 +1713,9 @@
       <c r="C46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" s="9">
+        <v>9</v>
+      </c>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,7 +1728,9 @@
       <c r="C47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" s="9">
+        <v>9</v>
+      </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,7 +1743,9 @@
       <c r="C48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" s="9">
+        <v>9</v>
+      </c>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,7 +1758,9 @@
       <c r="C49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" s="9">
+        <v>9</v>
+      </c>
       <c r="E49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,7 +1773,9 @@
       <c r="C50" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" s="25">
+        <v>10</v>
+      </c>
       <c r="E50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,7 +1788,9 @@
       <c r="C51" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" s="25">
+        <v>10</v>
+      </c>
       <c r="E51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,7 +1803,9 @@
       <c r="C52" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" s="25">
+        <v>10</v>
+      </c>
       <c r="E52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,7 +1818,9 @@
       <c r="C53" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D53"/>
+      <c r="D53" s="25">
+        <v>10</v>
+      </c>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,7 +1833,9 @@
       <c r="C54" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" s="25">
+        <v>10</v>
+      </c>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,7 +1848,9 @@
       <c r="C55" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D55"/>
+      <c r="D55" s="22">
+        <v>5</v>
+      </c>
       <c r="E55"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,7 +1863,9 @@
       <c r="C56" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D56"/>
+      <c r="D56" s="22">
+        <v>9</v>
+      </c>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,7 +1878,9 @@
       <c r="C57" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" s="10">
+        <v>11</v>
+      </c>
       <c r="E57"/>
     </row>
   </sheetData>
